--- a/templates/表格模板.xlsx
+++ b/templates/表格模板.xlsx
@@ -15,45 +15,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="13">
   <si>
-    <t>一级分类</t>
+    <t>工单分类</t>
   </si>
   <si>
-    <t>二级分类</t>
+    <t>联系人</t>
   </si>
   <si>
-    <t>编码</t>
+    <t>联系电话</t>
   </si>
   <si>
-    <t>名称</t>
+    <t>地址</t>
   </si>
   <si>
-    <t>型号</t>
+    <t>工单内容</t>
   </si>
   <si>
-    <t>数量</t>
+    <t>热线</t>
   </si>
   <si>
-    <t>单位</t>
+    <t>济宁银行股份有限公司</t>
   </si>
   <si>
-    <t>厂家</t>
+    <t>新城济宁银行（南表</t>
   </si>
   <si>
-    <t>备注</t>
+    <t>50 非居民 100000026</t>
+  </si>
+  <si>
+    <t>户表开户</t>
+  </si>
+  <si>
+    <t>东营市天成建设有限公司</t>
+  </si>
+  <si>
+    <t>水泊东路东端项目部</t>
+  </si>
+  <si>
+    <t>20 非居民 100000028</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -72,13 +83,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,6 +94,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -106,17 +117,25 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,8 +147,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -137,85 +209,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -228,187 +239,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,32 +446,15 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -483,23 +477,25 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -519,155 +515,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -988,25 +996,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A20" sqref="A20:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.0166666666667" style="1"/>
     <col min="2" max="2" width="19.325" style="1"/>
     <col min="3" max="3" width="13.9083333333333" style="1"/>
     <col min="4" max="4" width="13.4166666666667" style="1"/>
-    <col min="5" max="6" width="21.2916666666667" style="1"/>
-    <col min="7" max="7" width="7.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="1026" width="9.225" style="1"/>
+    <col min="5" max="5" width="95.25" style="1" customWidth="1"/>
+    <col min="6" max="1022" width="9.225" style="1"/>
+    <col min="1023" max="1023" width="9.225"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,20 +1029,353 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="C2" s="1">
+        <v>13668675729</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>18354688069</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13668675729</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18354688069</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13668675729</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>18354688069</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13668675729</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>18354688069</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>13668675729</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>18354688069</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>13668675729</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>18354688069</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13668675729</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>18354688069</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13668675729</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>18354688069</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>13668675729</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1">
+        <v>18354688069</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>13668675729</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>18354688069</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A3 A4:A5 A6:A7 A8:A9 A10:A11 A12:A13 A14:A15 A16:A17 A18:A19 A20:A21 A22:A1048576">
+      <formula1>"热线,户表开户,大表开户,报停,销户,投诉举报,用户名变更,用水分类申请"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
